--- a/Data/Commodore 64C/250466/Data C64C 250466.xlsx
+++ b/Data/Commodore 64C/250466/Data C64C 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64C\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E18B550-CFDA-4A7F-BD36-9EF00BCA8BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1165B9-1E10-4C1F-BE0B-D0A9650F8AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="330">
   <si>
     <t>Name</t>
   </si>
@@ -195,9 +195,6 @@
     <t>CN6</t>
   </si>
   <si>
-    <t>44 pin</t>
-  </si>
-  <si>
     <t>Expansion port</t>
   </si>
   <si>
@@ -537,42 +534,12 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Memory locations:
-$DC00-$DCFF</t>
-  </si>
-  <si>
     <t>CIA 1</t>
   </si>
   <si>
     <t>CIA 2</t>
   </si>
   <si>
-    <t>Memory locations:
-$DD00-$DDFF</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$A000-$BFFF</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$E000-$FFFF</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$D000-$DFFF</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$D800-$DBFF</t>
-  </si>
-  <si>
-    <t>DRAM</t>
-  </si>
-  <si>
-    <t>64KByte x 4-bit</t>
-  </si>
-  <si>
     <t>Multiplexer</t>
   </si>
   <si>
@@ -586,10 +553,6 @@
   </si>
   <si>
     <t>906114-01</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$D400-$D7FF</t>
   </si>
   <si>
     <t>Dual timer</t>
@@ -644,19 +607,6 @@
     <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
 Compatible part-number:
 82S100</t>
-  </si>
-  <si>
-    <t>6569 (PAL)
-6567 (NTSC)
-Pin meassurements:
-17: PAL = 0.98 MHz
-17: NTSC = 1.02 MHz
-21: PAL = 17.734472 MHz
-21: NTSC = 14.31818 MHz
-22: PAL = 7.88 MHz
-22: NTSC = 8.18 MHz
-Memory locations:
-$D000-$D3FF</t>
   </si>
   <si>
     <t>8-bit 3-state latch</t>
@@ -1044,6 +994,92 @@
     <t>Ray Carlsen; CBM</t>
   </si>
   <si>
+    <t>Data\Commodore 64C\250466\Board-Layout-250466 (NTSC).jpg</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>250V/1.5A</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Memory location:
+$DC00-$DCFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$DD00-$DDFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$A000-$BFFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$E000-$FFFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D000-$DFFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D800-$DBFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D400-$D7FF</t>
+  </si>
+  <si>
+    <t>6569 (PAL)
+6567 (NTSC)
+Pin meassurements:
+17: PAL = 0.98 MHz
+17: NTSC = 1.02 MHz
+21: PAL = 17.734472 MHz
+21: NTSC = 14.31818 MHz
+22: PAL = 7.88 MHz
+22: NTSC = 8.18 MHz
+Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
+    <t>44 pin edge</t>
+  </si>
+  <si>
+    <t>PET/VIC-20/C64 Port Pinouts</t>
+  </si>
+  <si>
+    <t>Data\Commodore shared files\Board local files\commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>1024 x 4-bit</t>
+  </si>
+  <si>
+    <t>4096 x 8-bit</t>
+  </si>
+  <si>
+    <t>8192 x 8-bit</t>
+  </si>
+  <si>
+    <t>65536 x 4-bit</t>
+  </si>
+  <si>
+    <t>Dynamic RAM</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1056,29 +1092,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-April-14</t>
+      <t>2025-April-20</t>
     </r>
-  </si>
-  <si>
-    <t>Data\Commodore 64C\250466\Board-Layout-250466 (NTSC).jpg</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C45</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>250V/1.5A</t>
-  </si>
-  <si>
-    <t>Fuse</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1217,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1293,10 +1308,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1632,17 +1643,17 @@
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1655,7 +1666,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1666,7 +1677,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="32" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1727,7 +1738,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1750,7 +1761,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1771,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -1899,12 +1910,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1912,12 +1923,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,44 +1966,44 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2000,13 +2011,13 @@
         <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2014,195 +2025,195 @@
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2210,13 +2221,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2224,13 +2235,13 @@
         <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2238,100 +2249,100 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8">
       <c r="A34" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2339,321 +2350,321 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="17" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="17" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="17" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2661,139 +2672,139 @@
         <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="17" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2801,103 +2812,103 @@
         <v>49</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="28.8">
       <c r="A74" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" s="1">
         <v>6526</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="28.8">
       <c r="A75" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1">
         <v>6526</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="28.8">
@@ -2908,78 +2919,90 @@
         <v>2364</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.8">
       <c r="A77" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1">
         <v>2364</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.8">
       <c r="A78" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1">
         <v>2332</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>170</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="28.8">
       <c r="A79" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1">
         <v>2114</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>171</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" s="1">
         <v>6510</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2990,10 +3013,10 @@
         <v>7406</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="43.2">
@@ -3004,16 +3027,16 @@
         <v>41464</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="43.2">
@@ -3024,16 +3047,16 @@
         <v>41464</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3044,52 +3067,52 @@
         <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B87" s="1">
         <v>4066</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="72">
@@ -3097,64 +3120,64 @@
         <v>48</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="28.8">
       <c r="A89" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B89" s="1">
         <v>6581</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="187.2">
       <c r="A90" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1">
         <v>6569</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" s="1">
         <v>556</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3165,24 +3188,24 @@
         <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3193,122 +3216,122 @@
         <v>44</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="1">
         <v>4066</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="1">
         <v>8701</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="17" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100" s="1">
         <v>7812</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101" s="1">
         <v>7805</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="28.8">
       <c r="A102" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4125,12 +4148,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4145,7 +4168,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4157,7 +4180,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4256,7 +4279,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="19">
         <v>1451</v>
@@ -4276,7 +4299,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="19">
         <v>2177</v>
@@ -4296,7 +4319,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="19">
         <v>2672</v>
@@ -4316,7 +4339,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="19">
         <v>2672</v>
@@ -4336,7 +4359,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="19">
         <v>3215</v>
@@ -4356,7 +4379,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="19">
         <v>3487</v>
@@ -4376,7 +4399,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="19">
         <v>2664</v>
@@ -4456,7 +4479,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="19">
         <v>2124</v>
@@ -4476,7 +4499,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="19">
         <v>1872</v>
@@ -4496,7 +4519,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="19">
         <v>1170</v>
@@ -4516,7 +4539,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="19">
         <v>3249</v>
@@ -4556,7 +4579,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="19">
         <v>2741</v>
@@ -4576,7 +4599,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="19">
         <v>2998</v>
@@ -4596,7 +4619,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="19">
         <v>2998</v>
@@ -4616,7 +4639,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="19">
         <v>2358</v>
@@ -4636,7 +4659,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="19">
         <v>3385</v>
@@ -4656,7 +4679,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="19">
         <v>2660</v>
@@ -4676,7 +4699,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="19">
         <v>2565</v>
@@ -4696,7 +4719,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="19">
         <v>1923</v>
@@ -4736,7 +4759,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="19">
         <v>3433</v>
@@ -4756,7 +4779,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="19">
         <v>3726</v>
@@ -4796,7 +4819,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C38" s="19">
         <v>3356</v>
@@ -4816,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="19">
         <v>3177</v>
@@ -4856,7 +4879,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="19">
         <v>1223</v>
@@ -4876,7 +4899,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="19">
         <v>1487</v>
@@ -4896,7 +4919,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="19">
         <v>2287</v>
@@ -4996,7 +5019,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="19">
         <v>2165</v>
@@ -5016,7 +5039,7 @@
         <v>30</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="19">
         <v>2002</v>
@@ -5036,7 +5059,7 @@
         <v>30</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="19">
         <v>1821</v>
@@ -5056,7 +5079,7 @@
         <v>30</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="19">
         <v>2165</v>
@@ -5096,7 +5119,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="19">
         <v>2823</v>
@@ -5116,7 +5139,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="19">
         <v>2484</v>
@@ -5156,7 +5179,7 @@
         <v>30</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="19">
         <v>1822</v>
@@ -5236,7 +5259,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="19">
         <v>3194</v>
@@ -5256,7 +5279,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="19">
         <v>3323</v>
@@ -5275,19 +5298,19 @@
       <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="35">
+      <c r="B62" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="19">
         <v>2486</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="19">
         <v>735</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="19">
         <v>100</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="19">
         <v>70</v>
       </c>
     </row>
@@ -5295,19 +5318,19 @@
       <c r="A63" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="35">
+      <c r="B63" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="19">
         <v>1128</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="19">
         <v>1236</v>
       </c>
-      <c r="E63" s="35">
+      <c r="E63" s="19">
         <v>87</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="19">
         <v>68</v>
       </c>
     </row>
@@ -5315,19 +5338,19 @@
       <c r="A64" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="35">
+      <c r="B64" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="19">
         <v>1164</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="19">
         <v>1781</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="19">
         <v>100</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="19">
         <v>77</v>
       </c>
     </row>
@@ -5335,19 +5358,19 @@
       <c r="A65" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="35">
+      <c r="B65" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="19">
         <v>1147</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="19">
         <v>450</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="19">
         <v>81</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="19">
         <v>63</v>
       </c>
     </row>
@@ -5355,19 +5378,19 @@
       <c r="A66" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="35">
+      <c r="B66" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="19">
         <v>2402</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="19">
         <v>1866</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="19">
         <v>104</v>
       </c>
-      <c r="F66" s="35">
+      <c r="F66" s="19">
         <v>103</v>
       </c>
     </row>
@@ -5375,19 +5398,19 @@
       <c r="A67" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="35">
+      <c r="B67" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="19">
         <v>2544</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="19">
         <v>2352</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="19">
         <v>79</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="19">
         <v>101</v>
       </c>
     </row>
@@ -5395,19 +5418,19 @@
       <c r="A68" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="35">
+      <c r="B68" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="19">
         <v>948</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D68" s="19">
         <v>2438</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="19">
         <v>78</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="19">
         <v>70</v>
       </c>
     </row>
@@ -5415,19 +5438,19 @@
       <c r="A69" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="35">
+      <c r="B69" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="19">
         <v>631</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="19">
         <v>2667</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="19">
         <v>92</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="19">
         <v>86</v>
       </c>
     </row>
@@ -5435,19 +5458,19 @@
       <c r="A70" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="35">
+      <c r="B70" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="19">
         <v>2804</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="19">
         <v>1735</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="19">
         <v>92</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="19">
         <v>92</v>
       </c>
     </row>
@@ -5455,19 +5478,19 @@
       <c r="A71" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="35">
+      <c r="B71" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="19">
         <v>2902</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="19">
         <v>1748</v>
       </c>
-      <c r="E71" s="35">
+      <c r="E71" s="19">
         <v>90</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="19">
         <v>79</v>
       </c>
     </row>
@@ -5475,19 +5498,19 @@
       <c r="A72" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="35">
+      <c r="B72" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="19">
         <v>498</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="19">
         <v>2637</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E72" s="19">
         <v>132</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="19">
         <v>73</v>
       </c>
     </row>
@@ -5495,19 +5518,19 @@
       <c r="A73" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="35">
+      <c r="B73" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="19">
         <v>3105</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D73" s="19">
         <v>1548</v>
       </c>
-      <c r="E73" s="35">
+      <c r="E73" s="19">
         <v>109</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="19">
         <v>85</v>
       </c>
     </row>
@@ -5515,19 +5538,19 @@
       <c r="A74" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="35">
+      <c r="B74" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="19">
         <v>1588</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="19">
         <v>2528</v>
       </c>
-      <c r="E74" s="35">
+      <c r="E74" s="19">
         <v>73</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="19">
         <v>81</v>
       </c>
     </row>
@@ -5535,19 +5558,19 @@
       <c r="A75" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="35">
+      <c r="B75" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="19">
         <v>2071</v>
       </c>
-      <c r="D75" s="35">
+      <c r="D75" s="19">
         <v>1694</v>
       </c>
-      <c r="E75" s="35">
+      <c r="E75" s="19">
         <v>101</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="19">
         <v>66</v>
       </c>
     </row>
@@ -5555,19 +5578,19 @@
       <c r="A76" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="35">
+      <c r="B76" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="19">
         <v>2402</v>
       </c>
-      <c r="D76" s="35">
+      <c r="D76" s="19">
         <v>1704</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E76" s="19">
         <v>94</v>
       </c>
-      <c r="F76" s="35">
+      <c r="F76" s="19">
         <v>89</v>
       </c>
     </row>
@@ -5575,19 +5598,19 @@
       <c r="A77" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="35">
+      <c r="B77" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="19">
         <v>2330</v>
       </c>
-      <c r="D77" s="35">
+      <c r="D77" s="19">
         <v>1705</v>
       </c>
-      <c r="E77" s="35">
+      <c r="E77" s="19">
         <v>72</v>
       </c>
-      <c r="F77" s="35">
+      <c r="F77" s="19">
         <v>60</v>
       </c>
     </row>
@@ -5595,19 +5618,19 @@
       <c r="A78" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="35">
+      <c r="B78" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="19">
         <v>2550</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="19">
         <v>1613</v>
       </c>
-      <c r="E78" s="35">
+      <c r="E78" s="19">
         <v>90</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="19">
         <v>110</v>
       </c>
     </row>
@@ -5615,19 +5638,19 @@
       <c r="A79" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="35">
+      <c r="B79" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="19">
         <v>2745</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D79" s="19">
         <v>2078</v>
       </c>
-      <c r="E79" s="35">
+      <c r="E79" s="19">
         <v>71</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="19">
         <v>130</v>
       </c>
     </row>
@@ -5635,19 +5658,19 @@
       <c r="A80" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" s="35">
+      <c r="B80" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="19">
         <v>2333</v>
       </c>
-      <c r="D80" s="35">
+      <c r="D80" s="19">
         <v>1858</v>
       </c>
-      <c r="E80" s="35">
+      <c r="E80" s="19">
         <v>72</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="19">
         <v>99</v>
       </c>
     </row>
@@ -5655,19 +5678,19 @@
       <c r="A81" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="35">
+      <c r="B81" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="19">
         <v>2061</v>
       </c>
-      <c r="D81" s="35">
+      <c r="D81" s="19">
         <v>1864</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="19">
         <v>109</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F81" s="19">
         <v>82</v>
       </c>
     </row>
@@ -5675,19 +5698,19 @@
       <c r="A82" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="35">
+      <c r="B82" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="19">
         <v>2358</v>
       </c>
-      <c r="D82" s="35">
+      <c r="D82" s="19">
         <v>735</v>
       </c>
-      <c r="E82" s="35">
+      <c r="E82" s="19">
         <v>124</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="19">
         <v>70</v>
       </c>
     </row>
@@ -5695,19 +5718,19 @@
       <c r="A83" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83" s="35">
+      <c r="B83" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="19">
         <v>2201</v>
       </c>
-      <c r="D83" s="35">
+      <c r="D83" s="19">
         <v>735</v>
       </c>
-      <c r="E83" s="35">
+      <c r="E83" s="19">
         <v>124</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="19">
         <v>70</v>
       </c>
     </row>
@@ -5715,19 +5738,19 @@
       <c r="A84" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="35">
+      <c r="B84" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="19">
         <v>2047</v>
       </c>
-      <c r="D84" s="35">
+      <c r="D84" s="19">
         <v>734</v>
       </c>
-      <c r="E84" s="35">
+      <c r="E84" s="19">
         <v>124</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F84" s="19">
         <v>72</v>
       </c>
     </row>
@@ -5735,19 +5758,19 @@
       <c r="A85" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="35">
+      <c r="B85" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="19">
         <v>1668</v>
       </c>
-      <c r="D85" s="35">
+      <c r="D85" s="19">
         <v>2437</v>
       </c>
-      <c r="E85" s="35">
+      <c r="E85" s="19">
         <v>158</v>
       </c>
-      <c r="F85" s="35">
+      <c r="F85" s="19">
         <v>65</v>
       </c>
     </row>
@@ -5755,19 +5778,19 @@
       <c r="A86" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C86" s="35">
+      <c r="B86" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="19">
         <v>1825</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D86" s="19">
         <v>2662</v>
       </c>
-      <c r="E86" s="35">
+      <c r="E86" s="19">
         <v>85</v>
       </c>
-      <c r="F86" s="35">
+      <c r="F86" s="19">
         <v>105</v>
       </c>
     </row>
@@ -5775,19 +5798,19 @@
       <c r="A87" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="35">
+      <c r="B87" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="19">
         <v>2041</v>
       </c>
-      <c r="D87" s="35">
+      <c r="D87" s="19">
         <v>1782</v>
       </c>
-      <c r="E87" s="35">
+      <c r="E87" s="19">
         <v>137</v>
       </c>
-      <c r="F87" s="35">
+      <c r="F87" s="19">
         <v>62</v>
       </c>
     </row>
@@ -5795,19 +5818,19 @@
       <c r="A88" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" s="35">
+      <c r="B88" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="19">
         <v>2180</v>
       </c>
-      <c r="D88" s="35">
+      <c r="D88" s="19">
         <v>1776</v>
       </c>
-      <c r="E88" s="35">
+      <c r="E88" s="19">
         <v>93</v>
       </c>
-      <c r="F88" s="35">
+      <c r="F88" s="19">
         <v>70</v>
       </c>
     </row>
@@ -5815,19 +5838,19 @@
       <c r="A89" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="35">
+      <c r="B89" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="19">
         <v>256</v>
       </c>
-      <c r="D89" s="35">
+      <c r="D89" s="19">
         <v>1320</v>
       </c>
-      <c r="E89" s="35">
+      <c r="E89" s="19">
         <v>30</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="19">
         <v>497</v>
       </c>
     </row>
@@ -5835,19 +5858,19 @@
       <c r="A90" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="35">
+      <c r="B90" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="19">
         <v>260</v>
       </c>
-      <c r="D90" s="35">
+      <c r="D90" s="19">
         <v>1941</v>
       </c>
-      <c r="E90" s="35">
+      <c r="E90" s="19">
         <v>34</v>
       </c>
-      <c r="F90" s="35">
+      <c r="F90" s="19">
         <v>603</v>
       </c>
     </row>
@@ -5855,19 +5878,19 @@
       <c r="A91" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="35">
+      <c r="B91" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="19">
         <v>2740</v>
       </c>
-      <c r="D91" s="35">
+      <c r="D91" s="19">
         <v>557</v>
       </c>
-      <c r="E91" s="35">
+      <c r="E91" s="19">
         <v>38</v>
       </c>
-      <c r="F91" s="35">
+      <c r="F91" s="19">
         <v>240</v>
       </c>
     </row>
@@ -5875,19 +5898,19 @@
       <c r="A92" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" s="35">
+      <c r="B92" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="19">
         <v>249</v>
       </c>
-      <c r="D92" s="35">
+      <c r="D92" s="19">
         <v>384</v>
       </c>
-      <c r="E92" s="35">
+      <c r="E92" s="19">
         <v>31</v>
       </c>
-      <c r="F92" s="35">
+      <c r="F92" s="19">
         <v>158</v>
       </c>
     </row>
@@ -5895,19 +5918,19 @@
       <c r="A93" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C93" s="35">
+      <c r="C93" s="19">
         <v>1065</v>
       </c>
-      <c r="D93" s="35">
+      <c r="D93" s="19">
         <v>2621</v>
       </c>
-      <c r="E93" s="35">
+      <c r="E93" s="19">
         <v>129</v>
       </c>
-      <c r="F93" s="35">
+      <c r="F93" s="19">
         <v>33</v>
       </c>
     </row>
@@ -5915,19 +5938,19 @@
       <c r="A94" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C94" s="35">
+      <c r="B94" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="19">
         <v>2512</v>
       </c>
-      <c r="D94" s="35">
+      <c r="D94" s="19">
         <v>2460</v>
       </c>
-      <c r="E94" s="35">
+      <c r="E94" s="19">
         <v>346</v>
       </c>
-      <c r="F94" s="35">
+      <c r="F94" s="19">
         <v>39</v>
       </c>
     </row>
@@ -5935,19 +5958,19 @@
       <c r="A95" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="35">
+      <c r="B95" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="19">
         <v>252</v>
       </c>
-      <c r="D95" s="35">
+      <c r="D95" s="19">
         <v>794</v>
       </c>
-      <c r="E95" s="35">
+      <c r="E95" s="19">
         <v>34</v>
       </c>
-      <c r="F95" s="35">
+      <c r="F95" s="19">
         <v>230</v>
       </c>
     </row>
@@ -5955,19 +5978,19 @@
       <c r="A96" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="35">
+      <c r="B96" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="19">
         <v>253</v>
       </c>
-      <c r="D96" s="35">
+      <c r="D96" s="19">
         <v>1058</v>
       </c>
-      <c r="E96" s="35">
+      <c r="E96" s="19">
         <v>34</v>
       </c>
-      <c r="F96" s="35">
+      <c r="F96" s="19">
         <v>226</v>
       </c>
     </row>
@@ -5975,19 +5998,19 @@
       <c r="A97" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C97" s="35">
+      <c r="B97" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="19">
         <v>2113</v>
       </c>
-      <c r="D97" s="35">
+      <c r="D97" s="19">
         <v>2175</v>
       </c>
-      <c r="E97" s="35">
+      <c r="E97" s="19">
         <v>91</v>
       </c>
-      <c r="F97" s="35">
+      <c r="F97" s="19">
         <v>73</v>
       </c>
     </row>
@@ -5995,19 +6018,19 @@
       <c r="A98" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="C98" s="35">
+      <c r="B98" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" s="19">
         <v>2516</v>
       </c>
-      <c r="D98" s="35">
+      <c r="D98" s="19">
         <v>1997</v>
       </c>
-      <c r="E98" s="35">
+      <c r="E98" s="19">
         <v>67</v>
       </c>
-      <c r="F98" s="35">
+      <c r="F98" s="19">
         <v>96</v>
       </c>
     </row>
@@ -6015,19 +6038,19 @@
       <c r="A99" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B99" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="35">
+      <c r="B99" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="19">
         <v>2587</v>
       </c>
-      <c r="D99" s="35">
+      <c r="D99" s="19">
         <v>2159</v>
       </c>
-      <c r="E99" s="35">
+      <c r="E99" s="19">
         <v>165</v>
       </c>
-      <c r="F99" s="35">
+      <c r="F99" s="19">
         <v>120</v>
       </c>
     </row>
@@ -6035,19 +6058,19 @@
       <c r="A100" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" s="35">
+      <c r="B100" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="19">
         <v>1245</v>
       </c>
-      <c r="D100" s="35">
+      <c r="D100" s="19">
         <v>1296</v>
       </c>
-      <c r="E100" s="35">
+      <c r="E100" s="19">
         <v>192</v>
       </c>
-      <c r="F100" s="35">
+      <c r="F100" s="19">
         <v>477</v>
       </c>
     </row>
@@ -6055,19 +6078,19 @@
       <c r="A101" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C101" s="35">
+      <c r="B101" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="19">
         <v>1245</v>
       </c>
-      <c r="D101" s="35">
+      <c r="D101" s="19">
         <v>1878</v>
       </c>
-      <c r="E101" s="35">
+      <c r="E101" s="19">
         <v>195</v>
       </c>
-      <c r="F101" s="35">
+      <c r="F101" s="19">
         <v>464</v>
       </c>
     </row>
@@ -6075,19 +6098,19 @@
       <c r="A102" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B102" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102" s="35">
+      <c r="B102" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" s="19">
         <v>1240</v>
       </c>
-      <c r="D102" s="35">
+      <c r="D102" s="19">
         <v>476</v>
       </c>
-      <c r="E102" s="35">
+      <c r="E102" s="19">
         <v>197</v>
       </c>
-      <c r="F102" s="35">
+      <c r="F102" s="19">
         <v>787</v>
       </c>
     </row>
@@ -6095,19 +6118,19 @@
       <c r="A103" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="35">
+      <c r="C103" s="19">
         <v>857</v>
       </c>
-      <c r="D103" s="35">
+      <c r="D103" s="19">
         <v>1979</v>
       </c>
-      <c r="E103" s="35">
+      <c r="E103" s="19">
         <v>201</v>
       </c>
-      <c r="F103" s="35">
+      <c r="F103" s="19">
         <v>68</v>
       </c>
     </row>
@@ -6115,19 +6138,19 @@
       <c r="A104" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C104" s="35">
+      <c r="C104" s="19">
         <v>876</v>
       </c>
-      <c r="D104" s="35">
+      <c r="D104" s="19">
         <v>1842</v>
       </c>
-      <c r="E104" s="35">
+      <c r="E104" s="19">
         <v>182</v>
       </c>
-      <c r="F104" s="35">
+      <c r="F104" s="19">
         <v>68</v>
       </c>
     </row>
@@ -6135,19 +6158,19 @@
       <c r="A105" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C105" s="35">
+      <c r="C105" s="19">
         <v>857</v>
       </c>
-      <c r="D105" s="35">
+      <c r="D105" s="19">
         <v>1910</v>
       </c>
-      <c r="E105" s="35">
+      <c r="E105" s="19">
         <v>201</v>
       </c>
-      <c r="F105" s="35">
+      <c r="F105" s="19">
         <v>68</v>
       </c>
     </row>
@@ -6155,19 +6178,19 @@
       <c r="A106" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C106" s="35">
+      <c r="C106" s="19">
         <v>976</v>
       </c>
-      <c r="D106" s="35">
+      <c r="D106" s="19">
         <v>2509</v>
       </c>
-      <c r="E106" s="35">
+      <c r="E106" s="19">
         <v>149</v>
       </c>
-      <c r="F106" s="35">
+      <c r="F106" s="19">
         <v>75</v>
       </c>
     </row>
@@ -6175,19 +6198,19 @@
       <c r="A107" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B107" s="35" t="s">
+      <c r="B107" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="35">
+      <c r="C107" s="19">
         <v>3231</v>
       </c>
-      <c r="D107" s="35">
+      <c r="D107" s="19">
         <v>1579</v>
       </c>
-      <c r="E107" s="35">
+      <c r="E107" s="19">
         <v>135</v>
       </c>
-      <c r="F107" s="35">
+      <c r="F107" s="19">
         <v>116</v>
       </c>
     </row>
@@ -6195,19 +6218,19 @@
       <c r="A108" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="19">
+        <v>749</v>
+      </c>
+      <c r="D108" s="19">
+        <v>2538</v>
+      </c>
+      <c r="E108" s="19">
         <v>115</v>
       </c>
-      <c r="C108" s="35">
-        <v>749</v>
-      </c>
-      <c r="D108" s="35">
-        <v>2538</v>
-      </c>
-      <c r="E108" s="35">
-        <v>115</v>
-      </c>
-      <c r="F108" s="35">
+      <c r="F108" s="19">
         <v>145</v>
       </c>
     </row>
@@ -6215,19 +6238,19 @@
       <c r="A109" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="35">
+      <c r="B109" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="19">
         <v>2962</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="19">
         <v>1620</v>
       </c>
-      <c r="E109" s="35">
+      <c r="E109" s="19">
         <v>105</v>
       </c>
-      <c r="F109" s="35">
+      <c r="F109" s="19">
         <v>121</v>
       </c>
     </row>
@@ -6235,19 +6258,19 @@
       <c r="A110" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="35">
+      <c r="C110" s="19">
         <v>1535</v>
       </c>
-      <c r="D110" s="35">
+      <c r="D110" s="19">
         <v>2600</v>
       </c>
-      <c r="E110" s="35">
+      <c r="E110" s="19">
         <v>214</v>
       </c>
-      <c r="F110" s="35">
+      <c r="F110" s="19">
         <v>111</v>
       </c>
     </row>
@@ -6255,19 +6278,19 @@
       <c r="A111" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C111" s="35">
+      <c r="B111" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="19">
         <v>402</v>
       </c>
-      <c r="D111" s="35">
+      <c r="D111" s="19">
         <v>589</v>
       </c>
-      <c r="E111" s="35">
+      <c r="E111" s="19">
         <v>199</v>
       </c>
-      <c r="F111" s="35">
+      <c r="F111" s="19">
         <v>81</v>
       </c>
     </row>
@@ -6275,19 +6298,19 @@
       <c r="A112" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B112" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C112" s="35">
+      <c r="B112" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="19">
         <v>2240</v>
       </c>
-      <c r="D112" s="35">
+      <c r="D112" s="19">
         <v>1677</v>
       </c>
-      <c r="E112" s="35">
+      <c r="E112" s="19">
         <v>86</v>
       </c>
-      <c r="F112" s="35">
+      <c r="F112" s="19">
         <v>44</v>
       </c>
     </row>
@@ -6295,28 +6318,28 @@
       <c r="A113" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113" s="35">
+      <c r="B113" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="19">
         <v>2237</v>
       </c>
-      <c r="D113" s="35">
+      <c r="D113" s="19">
         <v>1858</v>
       </c>
-      <c r="E113" s="35">
+      <c r="E113" s="19">
         <v>89</v>
       </c>
-      <c r="F113" s="35">
+      <c r="F113" s="19">
         <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C114" s="19">
         <v>1635</v>
@@ -6333,10 +6356,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C115" s="19">
         <v>514</v>
@@ -6353,10 +6376,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C116" s="19">
         <v>856</v>
@@ -6373,7 +6396,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B117" s="19" t="s">
         <v>46</v>
@@ -6393,7 +6416,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>47</v>
@@ -6413,10 +6436,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C119" s="19">
         <v>1829</v>
@@ -6433,10 +6456,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C120" s="19">
         <v>2195</v>
@@ -6453,10 +6476,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C121" s="19">
         <v>2217</v>
@@ -6473,10 +6496,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C122" s="19">
         <v>2468</v>
@@ -6493,10 +6516,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C123" s="19">
         <v>2411</v>
@@ -6513,10 +6536,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C124" s="19">
         <v>2794</v>
@@ -6533,10 +6556,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C125" s="19">
         <v>3083</v>
@@ -6553,10 +6576,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C126" s="19">
         <v>3527</v>
@@ -6573,10 +6596,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127" s="19">
         <v>5061</v>
@@ -6593,10 +6616,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C128" s="19">
         <v>5682</v>
@@ -6613,10 +6636,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C129" s="19">
         <v>314</v>
@@ -6633,10 +6656,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" s="19">
         <v>560</v>
@@ -6653,7 +6676,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>35</v>
@@ -6673,7 +6696,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>34</v>
@@ -6693,10 +6716,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C133" s="19">
         <v>1238</v>
@@ -6713,7 +6736,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>33</v>
@@ -6733,10 +6756,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C135" s="19">
         <v>2488</v>
@@ -6753,10 +6776,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C136" s="19">
         <v>2020</v>
@@ -6773,10 +6796,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C137" s="19">
         <v>2681</v>
@@ -6793,10 +6816,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C138" s="19">
         <v>584</v>
@@ -6813,10 +6836,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C139" s="19">
         <v>2894</v>
@@ -6833,10 +6856,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C140" s="19">
         <v>318</v>
@@ -6853,10 +6876,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" s="19">
         <v>547</v>
@@ -6873,7 +6896,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>38</v>
@@ -6893,7 +6916,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>38</v>
@@ -6913,10 +6936,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C144" s="19">
         <v>2017</v>
@@ -6933,10 +6956,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C145" s="19">
         <v>2252</v>
@@ -6953,10 +6976,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C146" s="19">
         <v>2641</v>
@@ -6973,10 +6996,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C147" s="19">
         <v>2661</v>
@@ -6993,10 +7016,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C148" s="19">
         <v>2794</v>
@@ -7013,10 +7036,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C149" s="19">
         <v>4423</v>
@@ -7033,10 +7056,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C150" s="19">
         <v>4384</v>
@@ -7053,10 +7076,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="19">
         <v>4544</v>
@@ -7073,10 +7096,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C152" s="19">
         <v>4808</v>
@@ -7093,10 +7116,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C153" s="19">
         <v>4777</v>
@@ -7113,10 +7136,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C154" s="19">
         <v>5309</v>
@@ -7133,10 +7156,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" s="19">
         <v>5881</v>
@@ -7153,10 +7176,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C156" s="19">
         <v>2641</v>
@@ -7173,10 +7196,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C157" s="19">
         <v>5084</v>
@@ -7193,10 +7216,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C158" s="19">
         <v>3526</v>
@@ -7213,10 +7236,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C159" s="19">
         <v>4862</v>
@@ -7233,10 +7256,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C160" s="19">
         <v>1826</v>
@@ -7253,10 +7276,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C161" s="19">
         <v>1634</v>
@@ -7273,10 +7296,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162" s="19">
         <v>1440</v>
@@ -7293,10 +7316,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C163" s="19">
         <v>3104</v>
@@ -7313,10 +7336,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C164" s="19">
         <v>1088</v>
@@ -7333,10 +7356,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C165" s="19">
         <v>1437</v>
@@ -7353,7 +7376,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>42</v>
@@ -7373,10 +7396,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C167" s="19">
         <v>3064</v>
@@ -7393,10 +7416,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C168" s="19">
         <v>4564</v>
@@ -7413,10 +7436,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C169" s="19">
         <v>5125</v>
@@ -7433,10 +7456,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C170" s="19">
         <v>344</v>
@@ -7453,10 +7476,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C171" s="19">
         <v>486</v>
@@ -7473,10 +7496,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C172" s="19">
         <v>1796</v>
@@ -7493,10 +7516,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C173" s="19">
         <v>2548</v>
@@ -7513,10 +7536,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C174" s="19">
         <v>3000</v>
@@ -7533,7 +7556,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>49</v>
@@ -7553,10 +7576,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C176" s="19">
         <v>5861</v>
@@ -7573,10 +7596,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C177" s="19">
         <v>5801</v>
@@ -7593,10 +7616,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C178" s="19">
         <v>5798</v>
@@ -7613,10 +7636,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C179" s="19">
         <v>5962</v>
@@ -7633,10 +7656,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C180" s="19">
         <v>4433</v>
@@ -7653,10 +7676,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C181" s="19">
         <v>4862</v>
@@ -7673,10 +7696,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C182" s="19">
         <v>3401</v>
@@ -7693,10 +7716,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C183" s="19">
         <v>5706</v>
@@ -7713,10 +7736,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C184" s="19">
         <v>515</v>
@@ -7733,10 +7756,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C185" s="19">
         <v>823</v>
@@ -7753,7 +7776,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>45</v>
@@ -7773,10 +7796,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C187" s="19">
         <v>1483</v>
@@ -7793,10 +7816,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C188" s="19">
         <v>1794</v>
@@ -7813,10 +7836,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C189" s="19">
         <v>2256</v>
@@ -7833,10 +7856,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C190" s="19">
         <v>2142</v>
@@ -7853,7 +7876,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>32</v>
@@ -7873,7 +7896,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>40</v>
@@ -7893,7 +7916,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B193" s="19" t="s">
         <v>41</v>
@@ -7913,10 +7936,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C194" s="19">
         <v>1285</v>
@@ -7933,7 +7956,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>36</v>
@@ -7953,10 +7976,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C196" s="19">
         <v>2489</v>
@@ -7973,10 +7996,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C197" s="19">
         <v>2023</v>
@@ -7993,10 +8016,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C198" s="19">
         <v>2487</v>
@@ -8013,7 +8036,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>48</v>
@@ -8033,10 +8056,10 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C200" s="19">
         <v>2526</v>
@@ -8053,10 +8076,10 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C201" s="19">
         <v>3607</v>
@@ -8073,10 +8096,10 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C202" s="19">
         <v>553</v>
@@ -8093,7 +8116,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>39</v>
@@ -8113,10 +8136,10 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C204" s="19">
         <v>2024</v>
@@ -8133,7 +8156,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>43</v>
@@ -8153,10 +8176,10 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C206" s="19">
         <v>2720</v>
@@ -8173,10 +8196,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C207" s="19">
         <v>4074</v>
@@ -8193,10 +8216,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C208" s="19">
         <v>4863</v>
@@ -8213,10 +8236,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C209" s="19">
         <v>5107</v>
@@ -8233,10 +8256,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C210" s="19">
         <v>4182</v>
@@ -10113,12 +10136,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10128,7 +10151,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -10136,7 +10159,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -10167,46 +10190,46 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10214,66 +10237,66 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E18" s="14"/>
     </row>
@@ -10282,54 +10305,54 @@
         <v>45</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10337,10 +10360,10 @@
         <v>32</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10348,10 +10371,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10359,10 +10382,10 @@
         <v>41</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10370,43 +10393,43 @@
         <v>36</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10414,43 +10437,43 @@
         <v>48</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10458,21 +10481,21 @@
         <v>39</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10480,43 +10503,43 @@
         <v>43</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10684,7 +10707,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -10700,12 +10723,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10715,14 +10738,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -10751,277 +10774,354 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>124</v>
+      <c r="A9" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>121</v>
+      <c r="A10" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
+      <c r="A11" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>56</v>
+      <c r="A12" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>90</v>
+      <c r="A13" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>75</v>
+      <c r="A14" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>126</v>
+      <c r="A15" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>203</v>
+        <v>322</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="17" t="s">
-        <v>48</v>
+      <c r="A21" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>63</v>
+      <c r="A22" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" t="s">
-        <v>275</v>
+        <v>192</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="17" t="s">
-        <v>115</v>
+      <c r="A23" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" t="s">
-        <v>276</v>
+        <v>193</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>57</v>
+      <c r="A25" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" t="s">
-        <v>277</v>
+        <v>195</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" t="s">
-        <v>278</v>
+      <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>100</v>
+      <c r="A27" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>136</v>
+      <c r="A28" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" t="s">
-        <v>279</v>
+        <v>198</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="6"/>
+      <c r="A30" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="B37" s="6"/>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="29"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="30"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="14"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="14"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="14"/>
+    <row r="38" spans="1:3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="29"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="30"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="14"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="14"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11051,12 +11151,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11064,12 +11164,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11095,13 +11195,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11150,12 +11250,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11164,14 +11264,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11200,24 +11300,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11272,24 +11372,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11314,79 +11414,79 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/Data/Commodore 64C/250466/Data C64C 250466.xlsx
+++ b/Data/Commodore 64C/250466/Data C64C 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64C\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1165B9-1E10-4C1F-BE0B-D0A9650F8AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F8AA20-5181-487F-8FE2-E49E20CC1B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>

--- a/Data/Commodore 64C/250466/Data C64C 250466.xlsx
+++ b/Data/Commodore 64C/250466/Data C64C 250466.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64C\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F8AA20-5181-487F-8FE2-E49E20CC1B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AEB617-B332-4ADD-B87F-F9B760ADC8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Component highlights" sheetId="6" r:id="rId3"/>
     <sheet name="Component images" sheetId="11" r:id="rId4"/>
-    <sheet name="Component local files" sheetId="7" r:id="rId5"/>
-    <sheet name="Component links" sheetId="8" r:id="rId6"/>
-    <sheet name="Board local files" sheetId="9" r:id="rId7"/>
-    <sheet name="Board links" sheetId="10" r:id="rId8"/>
+    <sheet name="Component oscilloscope" sheetId="12" r:id="rId5"/>
+    <sheet name="Component local files" sheetId="7" r:id="rId6"/>
+    <sheet name="Component links" sheetId="8" r:id="rId7"/>
+    <sheet name="Board local files" sheetId="9" r:id="rId8"/>
+    <sheet name="Board links" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="334">
   <si>
     <t>Name</t>
   </si>
@@ -565,19 +566,6 @@
   </si>
   <si>
     <t>Crystal oscillator</t>
-  </si>
-  <si>
-    <t>5V DC regulator</t>
-  </si>
-  <si>
-    <t>12V DC regulator</t>
-  </si>
-  <si>
-    <t>Voltage regulator</t>
-  </si>
-  <si>
-    <t>PAL = 17.73447 MHz
-NTSC = 14.31818 MHz</t>
   </si>
   <si>
     <t>Modulator</t>
@@ -751,144 +739,6 @@
     </r>
   </si>
   <si>
-    <t>Data\Commodore 64C\250466\252278_1of2.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore 64C\250466\252278_2of2.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\User port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Cassette port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Serial bus.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Video-audio port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Expansion port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Power_connector.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Joystick port 2.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Joystick port 1.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6526.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\2364.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\2332.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\2114.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6510.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\7406.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\4464.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS257.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS258.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS139.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\4066.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\906114-01-PLA.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6581.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6569.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\LM556.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS373.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\7408.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\MC7800-series.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_6510_mpu_nov_1982.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\SN7406.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\74LS257A_Fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\hd74ls258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\hd74ls139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\c64_pla_dissected_a4ds.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\NE556.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\dm74ls373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\MC7800.PDF</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Board local files\C64C_Service_Manual_1992.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Board local files\C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
-  </si>
-  <si>
     <t>Documentation of columns in this worksheet is availble here:</t>
   </si>
   <si>
@@ -992,9 +842,6 @@
   </si>
   <si>
     <t>Ray Carlsen; CBM</t>
-  </si>
-  <si>
-    <t>Data\Commodore 64C\250466\Board-Layout-250466 (NTSC).jpg</t>
   </si>
   <si>
     <t>C27</t>
@@ -1060,9 +907,6 @@
   </si>
   <si>
     <t>PET/VIC-20/C64 Port Pinouts</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Board local files\commodore_pet_vic-20_c64_port_pinouts.pdf</t>
   </si>
   <si>
     <t>1024 x 4-bit</t>
@@ -1094,6 +938,176 @@
       </rPr>
       <t>2025-April-20</t>
     </r>
+  </si>
+  <si>
+    <t>12VDC voltage regulator</t>
+  </si>
+  <si>
+    <t>5VDC voltage regulator</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64C/250466/252278_1of2.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64C/250466/252278_2of2.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64C/250466/Board-Layout-250466 (NTSC).jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/User port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Cassette port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Serial bus.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Video-audio port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Expansion port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Power_connector.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Joystick port 2.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Joystick port 1.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6526.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6510.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/4464.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS257.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS258.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS139.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/906114-01-PLA.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6581.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6569.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/LM556.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS373.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/MC7800-series.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6510_mpu_nov_1982.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/NE556.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/MC7800.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
+  </si>
+  <si>
+    <t>PAL = 17.73447 MHz
+NTSC = 14.31818 MHz
+Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle). Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
+  </si>
+  <si>
+    <t>FreqGen</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Component behaviour</t>
+  </si>
+  <si>
+    <t>Reading</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1231,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1307,6 +1321,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1627,7 +1680,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1643,17 +1696,17 @@
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1666,7 +1719,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1677,7 +1730,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="32" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1738,7 +1791,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1761,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1782,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -1893,8 +1946,8 @@
   <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1910,12 +1963,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1923,12 +1976,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1969,10 +2022,10 @@
         <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>96</v>
@@ -1983,10 +2036,10 @@
         <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>96</v>
@@ -1997,10 +2050,10 @@
         <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>96</v>
@@ -2011,10 +2064,10 @@
         <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>96</v>
@@ -2025,10 +2078,10 @@
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>96</v>
@@ -2039,10 +2092,10 @@
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>96</v>
@@ -2053,10 +2106,10 @@
         <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>96</v>
@@ -2067,10 +2120,10 @@
         <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>96</v>
@@ -2081,10 +2134,10 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>96</v>
@@ -2095,10 +2148,10 @@
         <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>96</v>
@@ -2109,10 +2162,10 @@
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>96</v>
@@ -2123,10 +2176,10 @@
         <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>96</v>
@@ -2137,10 +2190,10 @@
         <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>96</v>
@@ -2154,7 +2207,7 @@
         <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>96</v>
@@ -2165,10 +2218,10 @@
         <v>155</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>96</v>
@@ -2179,10 +2232,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>96</v>
@@ -2196,7 +2249,7 @@
         <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>96</v>
@@ -2210,7 +2263,7 @@
         <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>96</v>
@@ -2221,10 +2274,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>96</v>
@@ -2235,10 +2288,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
@@ -2249,10 +2302,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>96</v>
@@ -2263,10 +2316,10 @@
         <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>96</v>
@@ -2277,10 +2330,10 @@
         <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>96</v>
@@ -2291,10 +2344,10 @@
         <v>150</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>96</v>
@@ -2305,10 +2358,10 @@
         <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>96</v>
@@ -2319,16 +2372,16 @@
         <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2336,10 +2389,10 @@
         <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>96</v>
@@ -2350,10 +2403,10 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>96</v>
@@ -2361,13 +2414,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="17" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>96</v>
@@ -2378,10 +2431,10 @@
         <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>96</v>
@@ -2392,10 +2445,10 @@
         <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>96</v>
@@ -2406,10 +2459,10 @@
         <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>96</v>
@@ -2420,10 +2473,10 @@
         <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>96</v>
@@ -2434,10 +2487,10 @@
         <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>96</v>
@@ -2448,10 +2501,10 @@
         <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>96</v>
@@ -2462,10 +2515,10 @@
         <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>96</v>
@@ -2479,7 +2532,7 @@
         <v>139</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>96</v>
@@ -2490,10 +2543,10 @@
         <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>96</v>
@@ -2507,7 +2560,7 @@
         <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>96</v>
@@ -2521,7 +2574,7 @@
         <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>96</v>
@@ -2532,10 +2585,10 @@
         <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>96</v>
@@ -2546,10 +2599,10 @@
         <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>96</v>
@@ -2560,10 +2613,10 @@
         <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>96</v>
@@ -2574,10 +2627,10 @@
         <v>122</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>96</v>
@@ -2588,10 +2641,10 @@
         <v>133</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>96</v>
@@ -2602,10 +2655,10 @@
         <v>132</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>96</v>
@@ -2616,10 +2669,10 @@
         <v>127</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>96</v>
@@ -2630,10 +2683,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>96</v>
@@ -2641,13 +2694,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>96</v>
@@ -2655,13 +2708,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="17" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>96</v>
@@ -2672,10 +2725,10 @@
         <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>96</v>
@@ -2686,10 +2739,10 @@
         <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>96</v>
@@ -2700,10 +2753,10 @@
         <v>147</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>96</v>
@@ -2714,10 +2767,10 @@
         <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>96</v>
@@ -2725,13 +2778,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="17" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>96</v>
@@ -2812,7 +2865,7 @@
         <v>49</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>50</v>
@@ -2891,7 +2944,7 @@
         <v>98</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="28.8">
@@ -2908,7 +2961,7 @@
         <v>98</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="28.8">
@@ -2925,10 +2978,10 @@
         <v>98</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.8">
@@ -2945,10 +2998,10 @@
         <v>98</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.8">
@@ -2965,10 +3018,10 @@
         <v>98</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="28.8">
@@ -2985,10 +3038,10 @@
         <v>98</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3013,7 +3066,7 @@
         <v>7406</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>98</v>
@@ -3027,16 +3080,16 @@
         <v>41464</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="43.2">
@@ -3047,16 +3100,16 @@
         <v>41464</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3129,7 +3182,7 @@
         <v>98</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="28.8">
@@ -3146,7 +3199,7 @@
         <v>98</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="187.2">
@@ -3163,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3202,7 +3255,7 @@
         <v>57</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>98</v>
@@ -3252,13 +3305,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="17" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>95</v>
@@ -3269,7 +3322,7 @@
         <v>87</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>95</v>
@@ -3294,13 +3347,10 @@
         <v>7812</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3311,19 +3361,19 @@
         <v>7805</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="28.8">
+    </row>
+    <row r="102" spans="1:6" ht="100.8">
       <c r="A102" s="17" t="s">
         <v>93</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>173</v>
       </c>
@@ -3331,7 +3381,7 @@
         <v>95</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4148,12 +4198,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4168,7 +4218,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4180,7 +4230,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4819,7 +4869,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="C38" s="19">
         <v>3356</v>
@@ -5759,7 +5809,7 @@
         <v>31</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C85" s="19">
         <v>1668</v>
@@ -5779,7 +5829,7 @@
         <v>31</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="C86" s="19">
         <v>1825</v>
@@ -6019,7 +6069,7 @@
         <v>31</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C98" s="19">
         <v>2516</v>
@@ -6336,7 +6386,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>134</v>
@@ -6356,7 +6406,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>124</v>
@@ -6376,7 +6426,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B116" s="19" t="s">
         <v>121</v>
@@ -6396,7 +6446,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B117" s="19" t="s">
         <v>46</v>
@@ -6416,7 +6466,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>47</v>
@@ -6436,7 +6486,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B119" s="19" t="s">
         <v>54</v>
@@ -6456,7 +6506,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>69</v>
@@ -6476,7 +6526,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>128</v>
@@ -6496,7 +6546,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>72</v>
@@ -6516,7 +6566,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>73</v>
@@ -6536,7 +6586,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>78</v>
@@ -6556,7 +6606,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>79</v>
@@ -6576,7 +6626,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>65</v>
@@ -6596,7 +6646,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>145</v>
@@ -6616,7 +6666,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>155</v>
@@ -6636,7 +6686,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>115</v>
@@ -6656,7 +6706,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>148</v>
@@ -6676,7 +6726,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>35</v>
@@ -6696,7 +6746,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>34</v>
@@ -6716,10 +6766,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="C133" s="19">
         <v>1238</v>
@@ -6736,7 +6786,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>33</v>
@@ -6756,7 +6806,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>61</v>
@@ -6776,7 +6826,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>53</v>
@@ -6796,7 +6846,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>94</v>
@@ -6816,7 +6866,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B138" s="19" t="s">
         <v>150</v>
@@ -6836,7 +6886,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>81</v>
@@ -6856,7 +6906,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B140" s="19" t="s">
         <v>117</v>
@@ -6876,7 +6926,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>159</v>
@@ -6896,7 +6946,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>38</v>
@@ -6916,7 +6966,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>38</v>
@@ -6936,10 +6986,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="C144" s="19">
         <v>2017</v>
@@ -6956,7 +7006,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>119</v>
@@ -6976,7 +7026,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>71</v>
@@ -6996,7 +7046,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>85</v>
@@ -7016,7 +7066,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>86</v>
@@ -7036,7 +7086,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>64</v>
@@ -7056,7 +7106,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>77</v>
@@ -7076,7 +7126,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>142</v>
@@ -7096,7 +7146,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>138</v>
@@ -7116,7 +7166,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>137</v>
@@ -7136,7 +7186,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>140</v>
@@ -7156,7 +7206,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>151</v>
@@ -7176,7 +7226,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>70</v>
@@ -7196,7 +7246,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>144</v>
@@ -7216,7 +7266,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>88</v>
@@ -7236,7 +7286,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>122</v>
@@ -7256,7 +7306,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>133</v>
@@ -7276,7 +7326,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>132</v>
@@ -7296,7 +7346,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>127</v>
@@ -7316,7 +7366,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>58</v>
@@ -7336,10 +7386,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C164" s="19">
         <v>1088</v>
@@ -7356,10 +7406,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="C165" s="19">
         <v>1437</v>
@@ -7376,7 +7426,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>42</v>
@@ -7396,7 +7446,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>80</v>
@@ -7416,7 +7466,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>147</v>
@@ -7436,7 +7486,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>143</v>
@@ -7456,7 +7506,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>108</v>
@@ -7476,7 +7526,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>111</v>
@@ -7496,7 +7546,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>129</v>
@@ -7516,7 +7566,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>100</v>
@@ -7536,7 +7586,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>83</v>
@@ -7556,7 +7606,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>49</v>
@@ -7576,7 +7626,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>160</v>
@@ -7596,7 +7646,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>103</v>
@@ -7616,7 +7666,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>106</v>
@@ -7636,7 +7686,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B179" s="19" t="s">
         <v>156</v>
@@ -7656,10 +7706,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="C180" s="19">
         <v>4433</v>
@@ -7676,10 +7726,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C181" s="19">
         <v>4862</v>
@@ -7696,7 +7746,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>87</v>
@@ -7716,7 +7766,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>153</v>
@@ -7736,7 +7786,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>123</v>
@@ -7756,7 +7806,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>120</v>
@@ -7776,7 +7826,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>45</v>
@@ -7796,7 +7846,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>55</v>
@@ -7816,7 +7866,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>89</v>
@@ -7836,7 +7886,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B189" s="19" t="s">
         <v>74</v>
@@ -7856,7 +7906,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>125</v>
@@ -7876,7 +7926,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>32</v>
@@ -7896,7 +7946,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>40</v>
@@ -7916,7 +7966,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B193" s="19" t="s">
         <v>41</v>
@@ -7936,10 +7986,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="C194" s="19">
         <v>1285</v>
@@ -7956,7 +8006,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>36</v>
@@ -7976,7 +8026,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>59</v>
@@ -7996,7 +8046,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>51</v>
@@ -8016,7 +8066,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>66</v>
@@ -8036,7 +8086,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>48</v>
@@ -8056,7 +8106,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>67</v>
@@ -8076,7 +8126,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>62</v>
@@ -8096,7 +8146,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>114</v>
@@ -8116,7 +8166,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>39</v>
@@ -8136,7 +8186,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>56</v>
@@ -8156,7 +8206,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>43</v>
@@ -8176,7 +8226,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>99</v>
@@ -8196,7 +8246,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>76</v>
@@ -8216,7 +8266,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>135</v>
@@ -8236,7 +8286,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>136</v>
@@ -8256,7 +8306,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>93</v>
@@ -10119,581 +10169,769 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>219</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>220</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="17"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="17"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+        <v>221</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+        <v>225</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="17"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="17"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="24"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="17"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="19"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="19"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="19"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="19"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="19"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="B16" s="19"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="19"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18" s="19"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="14"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="19"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="19"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="B22" s="19"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="B23" s="17"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="B24" s="17"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="B25" s="17"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="17"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="14"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="B28" s="14"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" s="14"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="B30" s="14"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="B31" s="14"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="14"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="41"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="28"/>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42" s="28"/>
+      <c r="C42" s="36"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="29"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44" s="29"/>
+      <c r="C44" s="42"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="B45"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="14"/>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="41"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="14"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="41"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="30"/>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="30"/>
+      <c r="C48" s="43"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="14"/>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="14"/>
+      <c r="C49" s="41"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="14"/>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="14"/>
+      <c r="C50" s="41"/>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="14"/>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="14"/>
+      <c r="C51" s="41"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="30"/>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="30"/>
+      <c r="C52" s="43"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="14"/>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="14"/>
+      <c r="C53" s="41"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="14"/>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="14"/>
+      <c r="C54" s="41"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="14"/>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="14"/>
+      <c r="C55" s="41"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="14"/>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="14"/>
+      <c r="C56" s="41"/>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="14"/>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="14"/>
+      <c r="C57" s="41"/>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="14"/>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="14"/>
+      <c r="C58" s="41"/>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="14"/>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="14"/>
+      <c r="C59" s="41"/>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="14"/>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="14"/>
+      <c r="C60" s="41"/>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="14"/>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="14"/>
+      <c r="C61" s="41"/>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="14"/>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="14"/>
+      <c r="C62" s="41"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="14"/>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="14"/>
+      <c r="C63" s="41"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="14"/>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="14"/>
+      <c r="C64" s="41"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="14"/>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="14"/>
+      <c r="C65" s="41"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="14"/>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="14"/>
+      <c r="C66" s="41"/>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="14"/>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="14"/>
+      <c r="C67" s="41"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="14"/>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="14"/>
+      <c r="C68" s="41"/>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="14"/>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="14"/>
+      <c r="C69" s="41"/>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="14"/>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="14"/>
+      <c r="C70" s="41"/>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="14"/>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="14"/>
+      <c r="C71" s="41"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="14"/>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="14"/>
+      <c r="C72" s="41"/>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="14"/>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="14"/>
+      <c r="C73" s="41"/>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="14"/>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="14"/>
+      <c r="C74" s="41"/>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="14"/>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="14"/>
+      <c r="C75" s="41"/>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="14"/>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="14"/>
+      <c r="C76" s="41"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="14"/>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="14"/>
+      <c r="C77" s="41"/>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="14"/>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="14"/>
+      <c r="C78" s="41"/>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="14"/>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" s="14"/>
+      <c r="C79" s="41"/>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="14"/>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="14"/>
+      <c r="C80" s="41"/>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="14"/>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="14"/>
+      <c r="C81" s="41"/>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="14"/>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="14"/>
+      <c r="C82" s="41"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="14"/>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="14"/>
+      <c r="C83" s="41"/>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="14"/>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="14"/>
+      <c r="C84" s="41"/>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="14"/>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="14"/>
+      <c r="C85" s="41"/>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="14"/>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" s="14"/>
+      <c r="C86" s="41"/>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="14"/>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="14"/>
+      <c r="C87" s="41"/>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="14"/>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="14"/>
+      <c r="C88" s="41"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="14"/>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="14"/>
+      <c r="C89" s="41"/>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="14"/>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" s="14"/>
+      <c r="C90" s="41"/>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10705,13 +10943,1059 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C245209E-6306-4EA6-A390-1E9C7CB53619}">
+  <dimension ref="A1:F198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
+      <c r="A2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1">
+      <c r="A7" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1">
+      <c r="A8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="14"/>
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="14"/>
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="14"/>
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="14"/>
+      <c r="B159" s="14"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="14"/>
+      <c r="B166" s="14"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="14"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="14"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="14"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="14"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="41"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="14"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="14"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-images" xr:uid="{5EF1EDDF-BAA1-4F4A-8DE7-6DC376756B8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10723,12 +12007,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10738,14 +12022,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -10778,10 +12062,10 @@
         <v>111</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10789,10 +12073,10 @@
         <v>129</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10800,10 +12084,10 @@
         <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -10811,10 +12095,10 @@
         <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10822,10 +12106,10 @@
         <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10833,10 +12117,10 @@
         <v>103</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10844,10 +12128,10 @@
         <v>106</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10855,10 +12139,10 @@
         <v>123</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -10866,10 +12150,10 @@
         <v>120</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10877,10 +12161,10 @@
         <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10888,10 +12172,10 @@
         <v>55</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10899,10 +12183,10 @@
         <v>89</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10910,10 +12194,10 @@
         <v>74</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -10921,10 +12205,10 @@
         <v>125</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10932,10 +12216,10 @@
         <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10943,10 +12227,10 @@
         <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10954,10 +12238,10 @@
         <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10965,10 +12249,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10976,10 +12260,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -10987,10 +12271,10 @@
         <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10998,10 +12282,10 @@
         <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11009,10 +12293,10 @@
         <v>114</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11020,10 +12304,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11031,10 +12315,10 @@
         <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -11042,10 +12326,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -11053,10 +12337,10 @@
         <v>99</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -11064,10 +12348,10 @@
         <v>135</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -11075,10 +12359,10 @@
         <v>136</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -11132,7 +12416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9014B11-7294-4050-ABF4-8B4EFBD7F103}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C29"/>
@@ -11151,12 +12435,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11164,12 +12448,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11198,10 +12482,10 @@
         <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11231,14 +12515,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DEE13-8567-47C0-98EF-B4590CF5D2FE}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11250,12 +12534,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11264,14 +12548,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11300,24 +12584,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11353,7 +12637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787D0651-AC56-4C79-A3A0-381B16C48D1E}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C31"/>
@@ -11372,24 +12656,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11414,79 +12698,79 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
         <v>205</v>
       </c>
-      <c r="B9" t="s">
-        <v>209</v>
-      </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:1">
